--- a/excel/main_code/1.xlsx
+++ b/excel/main_code/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>code</t>
   </si>
@@ -42,6 +42,47 @@
 他にも、性能がいいというのは、弊社の技術の特長ですが、では、何故、センスタイムのものは性能が良いかというと、まず、どういう風にディープラーニングを応用したら、良い結果が得られるのかを理解している優秀な研究者がいます。それぞれの得意分野が違う研究者が互いに交流することによって、こういう問題を解決するにはどうしたら良いかというノウハウが共有されます。
 そして弊社には人材を集める仕組みができています。コンピューターヴィジョンの研究者は半分くらいが中国人です。その中の優秀な人たちが、コンピュータービジョン研究の総本山の香港中文大学の 湯先生の研究室に集まってきます。
 その研究グループは世界的に有名な研究グループで、このグループにはいれば、トップレベルの学会の論文が書ける、そして、Googleやマイクロソフトなど世界のトップレベルの企業に就職ができる上、更にスタンフォードなどの、アメリカのトップ大学への進学もしやすくなります。我々はサマースクールやインターンをその研究室の学生に対して実施し、優秀な人たちをセンスタイムに残すような仕組みを作っています。</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; import numpy as np
+&gt;&gt;&gt; a = np.array([[1,2,3], [4,5,6]])
+&gt;&gt;&gt; b = np.array([[7, 8, 9], [10, 11, 12]])
+&gt;&gt;&gt; c = np.array((1, 2, 3))
+&gt;&gt;&gt; d = np.array((4, 5, 6))
+&gt;&gt;&gt; a
+array([[1, 2, 3],
+       [4, 5, 6]])
+&gt;&gt;&gt; b
+array([[ 7,  8,  9],
+       [10, 11, 12]])
+&gt;&gt;&gt; c
+array([1, 2, 3])
+&gt;&gt;&gt; d
+array([4, 5, 6])
+&gt;&gt;&gt; np.r_[a, b]
+array([[ 1,  2,  3],
+       [ 4,  5,  6],
+       [ 7,  8,  9],
+       [10, 11, 12]])
+&gt;&gt;&gt; np.c_[a, b]
+array([[ 1,  2,  3,  7,  8,  9],
+       [ 4,  5,  6, 10, 11, 12]])
+&gt;&gt;&gt; np.r_[c, d]
+array([1, 2, 3, 4, 5, 6])
+&gt;&gt;&gt; np.c_[c, d]
+array([[1, 4],
+       [2, 5],
+       [3, 6]])</t>
+  </si>
+  <si>
+    <t>numpyの配列の扱いで悩んだことがあったのでメモ。
+やりたかったことは、空の配列を作って、そこに縦ベクトルをループで水平方向に追加していく、ということ。ちなみに私が学部の頃使っていたMatlabでは以下のように書けます。</t>
+  </si>
+  <si>
+    <t>ディープラーニングを用いて株価予測を行うことは並大抵の努力では出来ない。演算時間が長く、辛抱強く待たなければいけない。</t>
+  </si>
+  <si>
+    <t>ディープラーニングを実装したライブラリを使いこなせるように準備している最中です。ディープラーニングには多くのベクトル演算が必要で、演算に多くの時間がかかります。この問題を解決するために、GPUを用いることで大幅に演算時間を短縮することが出来ます。GPUは本来映像を描写することに使用されますが、映像を描写する際に、座標計算など、ベクトル演算を多く行っているため、ディープラーニングに必要な大量のベクトル演算を瞬時に行うことが出来ます。</t>
   </si>
 </sst>
 </file>
@@ -399,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -464,10 +505,78 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
